--- a/ranking/historico.xlsx
+++ b/ranking/historico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\CANAL\PLANILHAS\RANKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B8D2E-5EBE-4EE0-B7EF-680F1CD4F42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4314A57E-D175-44B1-983D-F8107629280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
   <si>
     <t>RKFox</t>
   </si>
@@ -465,6 +465,15 @@
   </si>
   <si>
     <t>HENRY</t>
+  </si>
+  <si>
+    <t>650f7ff9399846a25d33d196</t>
+  </si>
+  <si>
+    <t>Daniela Mena</t>
+  </si>
+  <si>
+    <t>lmwpmjy7</t>
   </si>
 </sst>
 </file>
@@ -849,10 +858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E48"/>
+      <selection activeCell="A2" sqref="A2:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,665 +1027,682 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2">
-        <v>791015928.65040004</v>
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10">
+        <v>980266556.33009994</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="2">
-        <v>628607228.35670006</v>
+        <v>791015928.65040004</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
+      <c r="A12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2">
-        <v>614865183.0898</v>
+        <v>628607228.35670006</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>126</v>
+      <c r="A13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13">
-        <v>583533700.31419992</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="2">
+        <v>614865183.0898</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C14">
-        <v>544522892.0553</v>
+        <v>583533700.31419992</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
+      <c r="A15" t="s">
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>457639161.69879997</v>
+        <v>133</v>
+      </c>
+      <c r="C15">
+        <v>544522892.0553</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>450849675.486</v>
+        <v>457639161.69879997</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C17">
-        <v>420700911.00730002</v>
+        <v>450849675.486</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>135</v>
+      <c r="A18" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18">
-        <v>408781335.69529998</v>
+        <v>92</v>
+      </c>
+      <c r="C18" s="2">
+        <v>420700911.00730002</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C19">
-        <v>394261617.31169999</v>
+        <v>408781335.69529998</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>108</v>
+      <c r="A20" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20">
-        <v>390494989.58149999</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>394261617.31169999</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>345833343.39499998</v>
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>390494989.58149999</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" s="2">
-        <v>326539733.95709997</v>
+        <v>345833343.39499998</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>111</v>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23">
-        <v>319801443.25760001</v>
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>326539733.95709997</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>257745409.755</v>
+        <v>319801443.25760001</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>139</v>
+      <c r="A25" t="s">
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="2">
-        <v>253703830.2186</v>
+        <v>102</v>
+      </c>
+      <c r="C25">
+        <v>257745409.755</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2">
-        <v>241821515.06999999</v>
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>253703830.2186</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>114</v>
+      <c r="A27" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27">
-        <v>185220435.55849999</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>241821515.06999999</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28">
-        <v>157612316.62</v>
+        <v>185220435.55849999</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2">
-        <v>134779860.9285</v>
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29">
+        <v>157612316.62</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="2">
-        <v>133935911.3857</v>
+        <v>134779860.9285</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2">
-        <v>126635264.645</v>
+        <v>133935911.3857</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="2">
-        <v>119693533.6408</v>
+        <v>126635264.645</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2">
-        <v>114785845.41150001</v>
+        <v>119693533.6408</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>41</v>
+      <c r="A34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34">
-        <v>102561432.59099999</v>
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>114785845.41150001</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
+        <v>41</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>91937537.813800007</v>
+        <v>102561432.59099999</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
+      <c r="A36" t="s">
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2">
-        <v>73734687.441</v>
+        <v>121</v>
+      </c>
+      <c r="C36">
+        <v>91937537.813800007</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>59368089.345600002</v>
+        <v>73734687.441</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2">
-        <v>59153909.284900002</v>
+        <v>59368089.345600002</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
-        <v>57614327.934</v>
+        <v>59153909.284900002</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
-        <v>53041131.842299998</v>
+        <v>57614327.934</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>50149726.883000001</v>
+        <v>53041131.842299998</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
-        <v>43858659.606399998</v>
+        <v>50149726.883000001</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>129</v>
+      <c r="A43" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2">
-        <v>28198724.971999999</v>
+        <v>43858659.606399998</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C44">
-        <v>20362497.193599999</v>
+        <v>28198724.971999999</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2">
-        <v>18949434.361499999</v>
+        <v>20362497.193599999</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>62</v>
+      <c r="A46" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2">
-        <v>8692015.4945</v>
+        <v>18949434.361499999</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2">
-        <v>3544060.574</v>
+        <v>8692015.4945</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>104</v>
+      <c r="A48" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48">
-        <v>824668.91949999996</v>
+        <v>35</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3544060.574</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>824668.91949999996</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
         <v>106</v>
       </c>
     </row>

--- a/ranking/historico.xlsx
+++ b/ranking/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\CANAL\PLANILHAS\RANKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4314A57E-D175-44B1-983D-F8107629280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1ACB50-0769-4764-B532-AE0F3D2D4AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
   <si>
     <t>RKFox</t>
   </si>
@@ -474,6 +474,24 @@
   </si>
   <si>
     <t>lmwpmjy7</t>
+  </si>
+  <si>
+    <t>625190edabc36f0039acb8b2</t>
+  </si>
+  <si>
+    <t>Rafael Andrés</t>
+  </si>
+  <si>
+    <t>MDRplayer</t>
+  </si>
+  <si>
+    <t>663fc91267e60ee7d8a2f703</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>lw2idgxo</t>
   </si>
 </sst>
 </file>
@@ -858,10 +876,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1232,477 +1250,511 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>345833343.39499998</v>
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>353140182.88849998</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
       <c r="C23" s="2">
-        <v>326539733.95709997</v>
+        <v>345833343.39499998</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>111</v>
+      <c r="A24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24">
-        <v>319801443.25760001</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>326539733.95709997</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C25">
-        <v>257745409.755</v>
+        <v>319801443.25760001</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C26">
-        <v>253703830.2186</v>
+        <v>257745409.755</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
+      <c r="A27" t="s">
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>241821515.06999999</v>
+        <v>140</v>
+      </c>
+      <c r="C27">
+        <v>253703830.2186</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>114</v>
+      <c r="A28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28">
-        <v>185220435.55849999</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>241821515.06999999</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C29">
-        <v>157612316.62</v>
+        <v>185220435.55849999</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="2">
-        <v>134779860.9285</v>
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30">
+        <v>157612316.62</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="2">
-        <v>133935911.3857</v>
+        <v>134779860.9285</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2">
-        <v>126635264.645</v>
+        <v>133935911.3857</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>119693533.6408</v>
+        <v>126635264.645</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2">
-        <v>114785845.41150001</v>
+        <v>119693533.6408</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="2">
-        <v>102561432.59099999</v>
+        <v>114785845.41150001</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36">
-        <v>91937537.813800007</v>
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2">
+        <v>102561432.59099999</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>15</v>
+      <c r="A37" t="s">
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2">
-        <v>73734687.441</v>
+        <v>121</v>
+      </c>
+      <c r="C37">
+        <v>91937537.813800007</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2">
-        <v>59368089.345600002</v>
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>85943046.244000003</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>59153909.284900002</v>
+        <v>73734687.441</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="2">
-        <v>57614327.934</v>
+        <v>59368089.345600002</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2">
-        <v>53041131.842299998</v>
+        <v>59153909.284900002</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2">
-        <v>50149726.883000001</v>
+        <v>57614327.934</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>43858659.606399998</v>
+        <v>53041131.842299998</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>129</v>
+      <c r="A44" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44">
-        <v>28198724.971999999</v>
+        <v>19</v>
+      </c>
+      <c r="C44" s="2">
+        <v>50149726.883000001</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2">
-        <v>20362497.193599999</v>
+        <v>43858659.606399998</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>56</v>
+      <c r="A46" t="s">
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="2">
-        <v>18949434.361499999</v>
+        <v>130</v>
+      </c>
+      <c r="C46">
+        <v>28198724.971999999</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2">
-        <v>8692015.4945</v>
+        <v>20362497.193599999</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>36</v>
+      <c r="A48" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2">
-        <v>3544060.574</v>
+        <v>18949434.361499999</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>104</v>
+      <c r="A49" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49">
-        <v>824668.91949999996</v>
+        <v>61</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8692015.4945</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3544060.574</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>824668.91949999996</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
         <v>106</v>
       </c>
     </row>

--- a/ranking/historico.xlsx
+++ b/ranking/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\CANAL\PLANILHAS\RANKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1ACB50-0769-4764-B532-AE0F3D2D4AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56265A9D-C597-436E-9700-9BF2DAA7BA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="154">
   <si>
     <t>RKFox</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t>lw2idgxo</t>
+  </si>
+  <si>
+    <t>MDR Player</t>
+  </si>
+  <si>
+    <t>66712ed43d409a28fd524ff3</t>
+  </si>
+  <si>
+    <t>RFaNFT</t>
   </si>
 </sst>
 </file>
@@ -876,10 +885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1253,7 +1262,7 @@
         <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C22">
         <v>353140182.88849998</v>
@@ -1725,36 +1734,53 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>36</v>
+      <c r="A50" t="s">
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="2">
-        <v>3544060.574</v>
+        <v>146</v>
+      </c>
+      <c r="C50">
+        <v>6053416.017</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>104</v>
+      <c r="A51" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51">
-        <v>824668.91949999996</v>
+        <v>35</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3544060.574</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52">
+        <v>824668.91949999996</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
         <v>106</v>
       </c>
     </row>

--- a/ranking/historico.xlsx
+++ b/ranking/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\CANAL\PLANILHAS\RANKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56265A9D-C597-436E-9700-9BF2DAA7BA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0289E05-D4DB-4CF2-84DD-C0CB3D2E4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -302,9 +302,6 @@
     <t>lithrrgz</t>
   </si>
   <si>
-    <t>ksc25irv</t>
-  </si>
-  <si>
     <t>lyamecmn</t>
   </si>
   <si>
@@ -501,6 +498,9 @@
   </si>
   <si>
     <t>RFaNFT</t>
+  </si>
+  <si>
+    <t>ramorard</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E52"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -919,10 +919,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
       </c>
       <c r="C2">
         <v>3444532279.5640998</v>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2">
         <v>1011485021.6344</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
       </c>
       <c r="C10">
         <v>980266556.33009994</v>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2">
         <v>628607228.35670006</v>
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1123,10 +1123,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
         <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
       </c>
       <c r="C14">
         <v>583533700.31419992</v>
@@ -1135,15 +1135,15 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
       </c>
       <c r="C15">
         <v>544522892.0553</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1174,10 +1174,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
       </c>
       <c r="C17">
         <v>450849675.486</v>
@@ -1186,15 +1186,15 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2">
         <v>420700911.00730002</v>
@@ -1203,15 +1203,15 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
         <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>136</v>
       </c>
       <c r="C19">
         <v>408781335.69529998</v>
@@ -1220,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1242,10 +1242,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
         <v>108</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
       </c>
       <c r="C21">
         <v>390494989.58149999</v>
@@ -1254,15 +1254,15 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>353140182.88849998</v>
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1310,10 +1310,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
       </c>
       <c r="C25">
         <v>319801443.25760001</v>
@@ -1322,15 +1322,15 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
       </c>
       <c r="C26">
         <v>257745409.755</v>
@@ -1339,15 +1339,15 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
         <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
       </c>
       <c r="C27">
         <v>253703830.2186</v>
@@ -1356,7 +1356,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1378,10 +1378,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
         <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
       </c>
       <c r="C29">
         <v>185220435.55849999</v>
@@ -1390,15 +1390,15 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
         <v>117</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
       </c>
       <c r="C30">
         <v>157612316.62</v>
@@ -1407,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1429,10 +1429,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2">
         <v>133935911.3857</v>
@@ -1441,7 +1441,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1514,10 +1514,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
         <v>120</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
       </c>
       <c r="C37">
         <v>91937537.813800007</v>
@@ -1526,15 +1526,15 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
         <v>148</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
       </c>
       <c r="C38">
         <v>85943046.244000003</v>
@@ -1543,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1667,10 +1667,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
         <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
       </c>
       <c r="C46">
         <v>28198724.971999999</v>
@@ -1679,7 +1679,7 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1696,7 +1696,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1730,15 +1730,15 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50">
         <v>6053416.017</v>
@@ -1747,7 +1747,7 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1764,15 +1764,15 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
       </c>
       <c r="C52">
         <v>824668.91949999996</v>
@@ -1781,7 +1781,7 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ranking/historico.xlsx
+++ b/ranking/historico.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\CANAL\PLANILHAS\RANKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0289E05-D4DB-4CF2-84DD-C0CB3D2E4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326E601-47B3-488D-9D54-E88463C05FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha2!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="157">
   <si>
     <t>RKFox</t>
   </si>
@@ -501,6 +503,15 @@
   </si>
   <si>
     <t>ramorard</t>
+  </si>
+  <si>
+    <t>65cce0cf2326807109402d38</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Aschemp</t>
   </si>
 </sst>
 </file>
@@ -541,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,6 +561,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -918,37 +930,37 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>122</v>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>3444532279.5640998</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4348941254.7987995</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
+      <c r="A3" t="s">
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2983787940.1936002</v>
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>4003797510.1447997</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -959,7 +971,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>2891250539.1037998</v>
+        <v>3774782026.3442001</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -969,88 +981,88 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>2601921467.9625001</v>
+        <v>3248375778.1055999</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="2">
-        <v>1990152690.5778999</v>
+        <v>2938825004.5942001</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
+      <c r="A7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1402580534.1775999</v>
+        <v>2012790898.28</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
       <c r="C8" s="2">
-        <v>1323958324.221</v>
+        <v>1979902147.681</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>1011485021.6344</v>
+        <v>1385755540.3439999</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1061,7 +1073,7 @@
         <v>142</v>
       </c>
       <c r="C10">
-        <v>980266556.33009994</v>
+        <v>1284761330.7361</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1072,291 +1084,291 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
       </c>
       <c r="C11" s="2">
-        <v>791015928.65040004</v>
+        <v>1111689499.0688</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
+      <c r="A12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
-        <v>628607228.35670006</v>
+        <v>821606745.99040008</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
+      <c r="A13" t="s">
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2">
-        <v>614865183.0898</v>
+        <v>126</v>
+      </c>
+      <c r="C13">
+        <v>811303133.25059998</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C14">
-        <v>583533700.31419992</v>
+        <v>800339243.25639999</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>131</v>
+      <c r="A15" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15">
-        <v>544522892.0553</v>
+        <v>88</v>
+      </c>
+      <c r="C15" s="2">
+        <v>738436967.85400009</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2">
-        <v>457639161.69879997</v>
+        <v>728782445.88909996</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17">
-        <v>450849675.486</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>692615308.15999997</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
-        <v>420700911.00730002</v>
+        <v>685404425.62129998</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19">
-        <v>408781335.69529998</v>
+        <v>677708779.17080009</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
+      <c r="A20" t="s">
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2">
-        <v>394261617.31169999</v>
+        <v>98</v>
+      </c>
+      <c r="C20">
+        <v>593489065.87600005</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>107</v>
+      <c r="A21" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21">
-        <v>390494989.58149999</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="2">
+        <v>589635534.23020005</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C22">
-        <v>353140182.88849998</v>
+        <v>556930336.76709998</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>6</v>
+      <c r="A23" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>345833343.39499998</v>
+        <v>504636131.2791</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2">
-        <v>326539733.95709997</v>
+        <v>486880037.8872</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C25">
-        <v>319801443.25760001</v>
+        <v>448339514.95200002</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C26">
-        <v>257745409.755</v>
+        <v>417445728.44319999</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C27">
-        <v>253703830.2186</v>
+        <v>359936250.26420003</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1367,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>241821515.06999999</v>
+        <v>315864384.70749998</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1378,189 +1390,189 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C29">
-        <v>185220435.55849999</v>
+        <v>313414608.78100002</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30">
-        <v>157612316.62</v>
+        <v>310619299.91360003</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2">
-        <v>134779860.9285</v>
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31">
+        <v>301375587.34799999</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
-        <v>133935911.3857</v>
+        <v>238599332.528</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
+      <c r="A33" t="s">
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>126635264.645</v>
+        <v>117</v>
+      </c>
+      <c r="C33">
+        <v>197589322.26839998</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2">
-        <v>119693533.6408</v>
+        <v>194189104.78799999</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2">
-        <v>114785845.41150001</v>
+        <v>180090133.9522</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2">
-        <v>102561432.59099999</v>
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36">
+        <v>162040547.17699999</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>119</v>
+      <c r="A37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37">
-        <v>91937537.813800007</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>154925959.66749999</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38">
-        <v>85943046.244000003</v>
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>136433830.55849999</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="2">
-        <v>73734687.441</v>
+        <v>133819927.1758</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1571,7 +1583,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="2">
-        <v>59368089.345600002</v>
+        <v>120817594.3212</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1582,215 +1594,1318 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
-        <v>59153909.284900002</v>
+        <v>111604022.464</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
+      <c r="A42" t="s">
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="2">
-        <v>57614327.934</v>
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>104920327.2648</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2">
-        <v>53041131.842299998</v>
+        <v>85138524.083200008</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C44" s="2">
-        <v>50149726.883000001</v>
+        <v>65370627.055800006</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>43858659.606399998</v>
+        <v>62913253.0348</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>128</v>
+      <c r="A46" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46">
-        <v>28198724.971999999</v>
+        <v>53</v>
+      </c>
+      <c r="C46" s="2">
+        <v>60687543.725400001</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2">
-        <v>20362497.193599999</v>
+        <v>37230906.711999997</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>56</v>
+      <c r="A48" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
-        <v>18949434.361499999</v>
+        <v>29539074.563200001</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>62</v>
+      <c r="A49" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2">
-        <v>8692015.4945</v>
+        <v>27681815.642499998</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C50">
-        <v>6053416.017</v>
+        <v>27049554.524999999</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>36</v>
+      <c r="A51" t="s">
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3544060.574</v>
+        <v>145</v>
+      </c>
+      <c r="C51">
+        <v>25491588.609999999</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>103</v>
+      <c r="A52" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52">
-        <v>824668.91949999996</v>
+        <v>61</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11642777.654300001</v>
       </c>
       <c r="D52">
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>1332479.6470000001</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5788FF4-0F5B-4C97-BD54-4A086642F406}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45507</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2983787940.1936002</v>
+      </c>
+      <c r="F2">
+        <v>4348941254.7987995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3444532279.5640998</v>
+      </c>
+      <c r="F3">
+        <v>4003797510.1447997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2891250539.1037998</v>
+      </c>
+      <c r="F4">
+        <v>3774782026.3442001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1990152690.5778999</v>
+      </c>
+      <c r="F5">
+        <v>3248375778.1055999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2601921467.9625001</v>
+      </c>
+      <c r="F6">
+        <v>2938825004.5942001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1323958324.221</v>
+      </c>
+      <c r="F7">
+        <v>2012790898.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1402580534.1775999</v>
+      </c>
+      <c r="F8">
+        <v>1979902147.681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>791015928.65040004</v>
+      </c>
+      <c r="F9">
+        <v>1385755540.3439999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>980266556.33009994</v>
+      </c>
+      <c r="F10">
+        <v>1284761330.7361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1011485021.6344</v>
+      </c>
+      <c r="F11">
+        <v>1111689499.0688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>394261617.31169999</v>
+      </c>
+      <c r="F12">
+        <v>821606745.99040008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>583533700.31419992</v>
+      </c>
+      <c r="F13">
+        <v>811303133.25059998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>408781335.69529998</v>
+      </c>
+      <c r="F14">
+        <v>800339243.25639999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>628607228.35670006</v>
+      </c>
+      <c r="F15">
+        <v>738436967.85400009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>133935911.3857</v>
+      </c>
+      <c r="F16">
+        <v>728782445.88909996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>345833343.39499998</v>
+      </c>
+      <c r="F17">
+        <v>692615308.15999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>614865183.0898</v>
+      </c>
+      <c r="F18">
+        <v>685404425.62129998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>544522892.0553</v>
+      </c>
+      <c r="F19">
+        <v>677708779.17080009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>450849675.486</v>
+      </c>
+      <c r="F20">
+        <v>593489065.87600005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>326539733.95709997</v>
+      </c>
+      <c r="F21">
+        <v>589635534.23020005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>556930336.76709998</v>
+      </c>
+      <c r="F22">
+        <v>556930336.76709998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>457639161.69879997</v>
+      </c>
+      <c r="F23">
+        <v>504636131.2791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2">
+        <v>420700911.00730002</v>
+      </c>
+      <c r="F24">
+        <v>486880037.8872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>390494989.58149999</v>
+      </c>
+      <c r="F25">
+        <v>448339514.95200002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>353140182.88849998</v>
+      </c>
+      <c r="F26">
+        <v>417445728.44319999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>319801443.25760001</v>
+      </c>
+      <c r="F27">
+        <v>359936250.26420003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
+        <v>241821515.06999999</v>
+      </c>
+      <c r="F28">
+        <v>315864384.70749998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>253703830.2186</v>
+      </c>
+      <c r="F29">
+        <v>313414608.78100002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>185220435.55849999</v>
+      </c>
+      <c r="F30">
+        <v>310619299.91360003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>257745409.755</v>
+      </c>
+      <c r="F31">
+        <v>301375587.34799999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2">
+        <v>126635264.645</v>
+      </c>
+      <c r="F32">
+        <v>238599332.528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>157612316.62</v>
+      </c>
+      <c r="F33">
+        <v>197589322.26839998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2">
+        <v>114785845.41150001</v>
+      </c>
+      <c r="F34">
+        <v>194189104.78799999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2">
+        <v>119693533.6408</v>
+      </c>
+      <c r="F35">
+        <v>180090133.9522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>85943046.244000003</v>
+      </c>
+      <c r="F36">
+        <v>162040547.17699999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2">
+        <v>73734687.441</v>
+      </c>
+      <c r="F37">
+        <v>154925959.66749999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2">
+        <v>134779860.9285</v>
+      </c>
+      <c r="F38">
+        <v>136433830.55849999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2">
+        <v>102561432.59099999</v>
+      </c>
+      <c r="F39">
+        <v>133819927.1758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2">
+        <v>59368089.345600002</v>
+      </c>
+      <c r="F40">
+        <v>120817594.3212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2">
+        <v>57614327.934</v>
+      </c>
+      <c r="F41">
+        <v>111604022.464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>91937537.813800007</v>
+      </c>
+      <c r="F42">
+        <v>104920327.2648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2">
+        <v>50149726.883000001</v>
+      </c>
+      <c r="F43">
+        <v>85138524.083200008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2">
+        <v>59153909.284900002</v>
+      </c>
+      <c r="F44">
+        <v>65370627.055800006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2">
+        <v>53041131.842299998</v>
+      </c>
+      <c r="F45">
+        <v>62913253.0348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43858659.606399998</v>
+      </c>
+      <c r="F46">
+        <v>60687543.725400001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3544060.574</v>
+      </c>
+      <c r="F47">
+        <v>37230906.711999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20362497.193599999</v>
+      </c>
+      <c r="F48">
+        <v>29539074.563200001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2">
+        <v>18949434.361499999</v>
+      </c>
+      <c r="F49">
+        <v>27681815.642499998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>28198724.971999999</v>
+      </c>
+      <c r="F50">
+        <v>27049554.524999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>6053416.017</v>
+      </c>
+      <c r="F51">
+        <v>25491588.609999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8692015.4945</v>
+      </c>
+      <c r="F52">
+        <v>11642777.654300001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>824668.91949999996</v>
+      </c>
+      <c r="F53">
+        <v>1332479.6470000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{A5788FF4-0F5B-4C97-BD54-4A086642F406}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+      <sortCondition descending="1" ref="F1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>